--- a/FIDS.xlsx
+++ b/FIDS.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ba Truong Huu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2877DC-7D2F-459E-8AA1-84CE92BD851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBCCCF-0CF2-4BC6-94C3-B7BD47C2F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B07.H17.KG.ĐT" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -349,6 +349,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,32 +385,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,83 +736,83 @@
       <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.36328125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.54296875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="20" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="178" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="178.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -834,209 +834,198 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="66.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A9:B9"/>
@@ -1048,6 +1037,17 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.16" header="0.11" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/FIDS.xlsx
+++ b/FIDS.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code Project\Learn Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBCCCF-0CF2-4BC6-94C3-B7BD47C2F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A48B9D-D02B-40B0-AE95-3F1AC8AD7BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Original Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -349,47 +349,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,83 +736,83 @@
       <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="178.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="178.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -834,198 +834,209 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A9:B9"/>
@@ -1037,17 +1048,6 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.16" header="0.11" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/FIDS.xlsx
+++ b/FIDS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code Project\Learn Python\Print_Maintainform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A48B9D-D02B-40B0-AE95-3F1AC8AD7BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC88EF46-59D0-472C-826D-A7F94044A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sheet" sheetId="2" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -349,6 +349,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,31 +385,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,89 +733,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F9"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="20" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="178.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -834,220 +837,235 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
+  <mergeCells count="23">
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.16" header="0.11" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/FIDS.xlsx
+++ b/FIDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC88EF46-59D0-472C-826D-A7F94044A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3E9B2-CD5D-4C97-A1C7-BA2DE331E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Công trình</t>
   </si>
@@ -159,12 +159,15 @@
   <si>
     <t>Họ tên: Phan Việt Bằng</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +237,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -349,49 +359,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -736,7 +749,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -751,69 +764,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -837,11 +850,11 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -849,89 +862,97 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="D8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1043,6 +1064,17 @@
     <row r="121" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A10:B10"/>
@@ -1055,17 +1087,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.16" header="0.11" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/FIDS.xlsx
+++ b/FIDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3E9B2-CD5D-4C97-A1C7-BA2DE331E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40812059-BE6F-4FAE-AE4D-391A7D0BD9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -359,6 +359,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,9 +401,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -384,27 +408,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,17 +752,19 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J7"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
     <col min="8" max="9" width="14.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -770,65 +775,65 @@
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -850,63 +855,63 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -939,20 +944,20 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1064,17 +1069,6 @@
     <row r="121" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A10:B10"/>
@@ -1087,6 +1081,17 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.16" header="0.11" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/FIDS.xlsx
+++ b/FIDS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_Maintainform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40812059-BE6F-4FAE-AE4D-391A7D0BD9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5977117-0567-4A32-84DC-A866DBA046C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,49 +365,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,79 +759,80 @@
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="0.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -855,11 +856,11 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -879,85 +880,85 @@
       <c r="G8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1069,6 +1070,17 @@
     <row r="121" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="A10:B10"/>
@@ -1081,17 +1093,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.16" header="0.11" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
